--- a/results/FrequencyTables/27278725_IN1.xlsx
+++ b/results/FrequencyTables/27278725_IN1.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0021749262078608</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0125835016311947</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.888768059655119</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0214385583346279</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0010874631039304</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.000466055615970172</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06</v>
+        <v>0.00869970483144322</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.997514370048159</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00062140748796023</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.99906788876806</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.997980425664129</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.956190772098804</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.000310703743980115</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.000310703743980115</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.000310703743980115</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.000310703743980115</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.997825073792139</v>
       </c>
       <c r="U2">
-        <v>0.06</v>
+        <v>0.105949976697219</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.024390243902439</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0365076899176635</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.977784682305422</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,58 +539,58 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.995960851328259</v>
       </c>
       <c r="C3">
-        <v>0.99</v>
+        <v>0.959453161410595</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000466055615970172</v>
       </c>
       <c r="F3">
-        <v>0.98</v>
+        <v>0.92014913779711</v>
       </c>
       <c r="G3">
-        <v>0.01</v>
+        <v>0.000932111231940345</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000310703743980115</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0083890010874631</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000155351871990057</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000310703743980115</v>
       </c>
       <c r="L3">
-        <v>0.03</v>
+        <v>0.0428771166692559</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.000155351871990057</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00062140748796023</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01</v>
+        <v>0.0772098803790586</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.99953394438403</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -599,13 +599,13 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.79</v>
+        <v>0.858319092745068</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000776759359950287</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00201957433587075</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00062140748796023</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.000155351871990057</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.974677644865621</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00155351871990057</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.99922324064005</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.94</v>
+        <v>0.988348609600746</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00201957433587075</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.000466055615970172</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0010874631039304</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.0400807829734348</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.000310703743980115</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.99968929625602</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00062140748796023</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00155351871990057</v>
       </c>
       <c r="U4">
-        <v>0.94</v>
+        <v>0.887214540935218</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0414789498213453</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.00310703743980115</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.0167780021749262</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.000932111231940345</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.0209725027186578</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.10796955103309</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00201957433587075</v>
       </c>
       <c r="F5">
-        <v>0.02</v>
+        <v>0.0705297498834861</v>
       </c>
       <c r="G5">
-        <v>0.99</v>
+        <v>0.99860183315209</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.989280720832686</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.000310703743980115</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.97</v>
+        <v>0.94547149293149</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000310703743980115</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.000310703743980115</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.99875718502408</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.99</v>
+        <v>0.915022526021439</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000155351871990057</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000466055615970172</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000310703743980115</v>
       </c>
       <c r="V5">
-        <v>0.21</v>
+        <v>0.064781730619854</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.954637253378903</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000466055615970172</v>
       </c>
     </row>
   </sheetData>
